--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06945599999999999</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N2">
-        <v>0.208368</v>
+        <v>2.087391</v>
       </c>
       <c r="O2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q2">
-        <v>6.162338899999999</v>
+        <v>18.191347466343</v>
       </c>
       <c r="R2">
-        <v>55.46105009999999</v>
+        <v>163.722127197087</v>
       </c>
       <c r="S2">
-        <v>0.01249046872205056</v>
+        <v>0.4811877369170917</v>
       </c>
       <c r="T2">
-        <v>0.01249046872205056</v>
+        <v>0.4811877369170918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6957970000000001</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N3">
-        <v>2.087391</v>
+        <v>0.173459</v>
       </c>
       <c r="O3">
-        <v>0.1630308179872645</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P3">
-        <v>0.1630308179872644</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q3">
-        <v>61.73313924791668</v>
+        <v>1.511673155707</v>
       </c>
       <c r="R3">
-        <v>555.5982532312501</v>
+        <v>13.605058401363</v>
       </c>
       <c r="S3">
-        <v>0.1251271404255445</v>
+        <v>0.03998596509130383</v>
       </c>
       <c r="T3">
-        <v>0.1251271404255445</v>
+        <v>0.03998596509130384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>17.91585</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>53.74755</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.502633333333333</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N4">
-        <v>10.5079</v>
+        <v>2.087391</v>
       </c>
       <c r="O4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q4">
-        <v>310.7638453472222</v>
+        <v>12.46579468245</v>
       </c>
       <c r="R4">
-        <v>2796.874608125</v>
+        <v>112.19215214205</v>
       </c>
       <c r="S4">
-        <v>0.6298884487274201</v>
+        <v>0.329738494810197</v>
       </c>
       <c r="T4">
-        <v>0.6298884487274202</v>
+        <v>0.329738494810197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06945599999999999</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N5">
-        <v>0.208368</v>
+        <v>0.173459</v>
       </c>
       <c r="O5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q5">
-        <v>1.2443632776</v>
+        <v>1.03588847505</v>
       </c>
       <c r="R5">
-        <v>11.1992694984</v>
+        <v>9.32299627545</v>
       </c>
       <c r="S5">
-        <v>0.002522204774834944</v>
+        <v>0.02740076467287727</v>
       </c>
       <c r="T5">
-        <v>0.002522204774834945</v>
+        <v>0.02740076467287727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.91585</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H6">
-        <v>53.74755</v>
+        <v>18.313249</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>2.087391</v>
       </c>
       <c r="O6">
-        <v>0.1630308179872645</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P6">
-        <v>0.1630308179872644</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q6">
-        <v>12.46579468245</v>
+        <v>4.247434571484334</v>
       </c>
       <c r="R6">
-        <v>112.19215214205</v>
+        <v>38.226911143359</v>
       </c>
       <c r="S6">
-        <v>0.02526696780286556</v>
+        <v>0.1123508543244175</v>
       </c>
       <c r="T6">
-        <v>0.02526696780286556</v>
+        <v>0.1123508543244175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.91585</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H7">
-        <v>53.74755</v>
+        <v>18.313249</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.502633333333333</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N7">
-        <v>10.5079</v>
+        <v>0.173459</v>
       </c>
       <c r="O7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q7">
-        <v>62.752653405</v>
+        <v>0.3529553175878888</v>
       </c>
       <c r="R7">
-        <v>564.773880645</v>
+        <v>3.176597858291</v>
       </c>
       <c r="S7">
-        <v>0.1271935976420953</v>
+        <v>0.009336184184112669</v>
       </c>
       <c r="T7">
-        <v>0.1271935976420953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.960212333333333</v>
-      </c>
-      <c r="H8">
-        <v>26.880637</v>
-      </c>
-      <c r="I8">
-        <v>0.077511171905189</v>
-      </c>
-      <c r="J8">
-        <v>0.07751117190518901</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.06945599999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.208368</v>
-      </c>
-      <c r="O8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="P8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="Q8">
-        <v>0.6223405078239999</v>
-      </c>
-      <c r="R8">
-        <v>5.601064570415999</v>
-      </c>
-      <c r="S8">
-        <v>0.001261424399661098</v>
-      </c>
-      <c r="T8">
-        <v>0.001261424399661099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.960212333333333</v>
-      </c>
-      <c r="H9">
-        <v>26.880637</v>
-      </c>
-      <c r="I9">
-        <v>0.077511171905189</v>
-      </c>
-      <c r="J9">
-        <v>0.07751117190518901</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6957970000000001</v>
-      </c>
-      <c r="N9">
-        <v>2.087391</v>
-      </c>
-      <c r="O9">
-        <v>0.1630308179872645</v>
-      </c>
-      <c r="P9">
-        <v>0.1630308179872644</v>
-      </c>
-      <c r="Q9">
-        <v>6.234488860896334</v>
-      </c>
-      <c r="R9">
-        <v>56.110399748067</v>
-      </c>
-      <c r="S9">
-        <v>0.01263670975885443</v>
-      </c>
-      <c r="T9">
-        <v>0.01263670975885443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.960212333333333</v>
-      </c>
-      <c r="H10">
-        <v>26.880637</v>
-      </c>
-      <c r="I10">
-        <v>0.077511171905189</v>
-      </c>
-      <c r="J10">
-        <v>0.07751117190518901</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.502633333333333</v>
-      </c>
-      <c r="N10">
-        <v>10.5079</v>
-      </c>
-      <c r="O10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="P10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="Q10">
-        <v>31.38433839247778</v>
-      </c>
-      <c r="R10">
-        <v>282.4590455323</v>
-      </c>
-      <c r="S10">
-        <v>0.06361303774667347</v>
-      </c>
-      <c r="T10">
-        <v>0.06361303774667348</v>
+        <v>0.00933618418411267</v>
       </c>
     </row>
   </sheetData>
